--- a/AEF_files/99.processed/AEF_CMA6_Switzerland 2025 V1_comment.xlsx
+++ b/AEF_files/99.processed/AEF_CMA6_Switzerland 2025 V1_comment.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unfccc365.sharepoint.com/sites/Mitigation/Paris Agreement Article 6/Article 6.2/03_CARP/consistency/AEF_files.unchecked/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unfccc365.sharepoint.com/sites/Mitigation/Paris Agreement Article 6/Article 6.2/03_CARP/consistency/AEF_files/99.processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_865168D32AF931882F372790EE1C93103C06B42A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46487C18-9D6F-C344-BBB8-606406F4FFB5}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_865168D32AF931882F372790EE1C93103C06B42A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C65585C5-739A-134C-B291-1A218591C030}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38300" windowHeight="14080" tabRatio="618" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="169">
   <si>
     <t>Table</t>
   </si>
@@ -547,9 +547,6 @@
     <t>Table 1: Submission</t>
   </si>
   <si>
-    <t>Switzerland</t>
-  </si>
-  <si>
     <t>1.0</t>
   </si>
   <si>
@@ -689,9 +686,6 @@
   </si>
   <si>
     <t>Authorized entity</t>
-  </si>
-  <si>
-    <t>TH</t>
   </si>
 </sst>
 </file>
@@ -2439,7 +2433,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2465,7 +2459,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2473,7 +2467,7 @@
         <v>18</v>
       </c>
       <c r="C5" s="100" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2497,7 +2491,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2505,7 +2499,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2529,7 +2523,7 @@
         <v>29</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
@@ -2593,14 +2587,14 @@
     </row>
     <row r="5" spans="1:21" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="123" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="124"/>
       <c r="D5" s="124"/>
       <c r="E5" s="124"/>
       <c r="F5" s="33"/>
       <c r="G5" s="34" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
@@ -2707,7 +2701,7 @@
         <v>44876</v>
       </c>
       <c r="D8" s="40" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E8" s="101">
         <v>1</v>
@@ -2717,43 +2711,43 @@
         <v>1125655</v>
       </c>
       <c r="H8" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="I8" s="84" t="s">
+      <c r="J8" s="82" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="J8" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="K8" s="82" t="s">
+      <c r="L8" s="82" t="s">
         <v>131</v>
       </c>
-      <c r="L8" s="82" t="s">
+      <c r="M8" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="M8" s="82" t="s">
+      <c r="N8" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="N8" s="82" t="s">
+      <c r="O8" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="O8" s="81" t="s">
+      <c r="P8" s="93" t="s">
         <v>135</v>
       </c>
-      <c r="P8" s="93" t="s">
+      <c r="Q8" s="93" t="s">
         <v>136</v>
       </c>
-      <c r="Q8" s="93" t="s">
+      <c r="R8" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="R8" s="81" t="s">
+      <c r="S8" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="S8" s="94" t="s">
-        <v>139</v>
-      </c>
       <c r="T8" s="95" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U8" s="83"/>
     </row>
@@ -2765,7 +2759,7 @@
         <v>44984</v>
       </c>
       <c r="D9" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E9" s="101">
         <v>1</v>
@@ -2775,40 +2769,40 @@
         <v>500000</v>
       </c>
       <c r="H9" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="I9" s="82" t="s">
-        <v>130</v>
-      </c>
       <c r="J9" s="82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K9" s="92" t="s">
+        <v>140</v>
+      </c>
+      <c r="L9" s="82" t="s">
         <v>141</v>
       </c>
-      <c r="L9" s="82" t="s">
+      <c r="M9" s="82" t="s">
         <v>142</v>
       </c>
-      <c r="M9" s="82" t="s">
+      <c r="N9" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="O9" s="81" t="s">
         <v>143</v>
       </c>
-      <c r="N9" s="82" t="s">
-        <v>134</v>
-      </c>
-      <c r="O9" s="81" t="s">
+      <c r="P9" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q9" s="93" t="s">
         <v>144</v>
       </c>
-      <c r="P9" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q9" s="93" t="s">
-        <v>145</v>
-      </c>
       <c r="R9" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="S9" s="94" t="s">
         <v>138</v>
-      </c>
-      <c r="S9" s="94" t="s">
-        <v>139</v>
       </c>
       <c r="T9" s="82" t="s">
         <v>19</v>
@@ -2823,7 +2817,7 @@
         <v>45054</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E10" s="101">
         <v>1</v>
@@ -2833,43 +2827,43 @@
         <v>97217</v>
       </c>
       <c r="H10" s="82" t="s">
+        <v>128</v>
+      </c>
+      <c r="I10" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="I10" s="82" t="s">
-        <v>130</v>
-      </c>
       <c r="J10" s="82" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K10" s="82" t="s">
+        <v>146</v>
+      </c>
+      <c r="L10" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="L10" s="82" t="s">
+      <c r="M10" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="N10" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="O10" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="P10" s="93" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q10" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="M10" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="N10" s="82" t="s">
-        <v>134</v>
-      </c>
-      <c r="O10" s="81" t="s">
-        <v>135</v>
-      </c>
-      <c r="P10" s="93" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q10" s="93" t="s">
-        <v>149</v>
-      </c>
       <c r="R10" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="S10" s="94" t="s">
         <v>138</v>
       </c>
-      <c r="S10" s="94" t="s">
-        <v>139</v>
-      </c>
       <c r="T10" s="96" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="U10" s="83"/>
     </row>
@@ -3055,7 +3049,7 @@
     </row>
     <row r="4" spans="1:34" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="113" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="29"/>
@@ -3063,7 +3057,7 @@
         <v>36</v>
       </c>
       <c r="F4" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G4" s="20"/>
       <c r="H4" s="30"/>
@@ -3084,7 +3078,7 @@
       <c r="W4" s="32"/>
       <c r="X4" s="33"/>
       <c r="Y4" s="34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Z4" s="34"/>
       <c r="AA4" s="34"/>
@@ -3101,7 +3095,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="65"/>
       <c r="H5" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
@@ -3111,7 +3105,7 @@
       <c r="N5" s="35"/>
       <c r="O5" s="18"/>
       <c r="P5" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q5" s="29"/>
       <c r="R5" s="29"/>
@@ -3119,12 +3113,12 @@
       <c r="T5" s="29"/>
       <c r="U5" s="18"/>
       <c r="V5" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="W5" s="20"/>
       <c r="X5" s="36"/>
       <c r="Y5" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Z5" s="28"/>
       <c r="AA5" s="28"/>
@@ -3150,7 +3144,7 @@
       <c r="J6" s="52"/>
       <c r="K6" s="18"/>
       <c r="L6" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M6" s="28"/>
       <c r="N6" s="28"/>
@@ -3165,12 +3159,12 @@
       <c r="W6" s="38"/>
       <c r="X6" s="36"/>
       <c r="Y6" s="125" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Z6" s="124"/>
       <c r="AA6" s="40"/>
       <c r="AB6" s="126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AC6" s="124"/>
       <c r="AD6" s="124"/>
@@ -3188,13 +3182,13 @@
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
       <c r="I7" s="39" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J7" s="39"/>
       <c r="K7" s="18"/>
       <c r="L7" s="23"/>
       <c r="M7" s="28" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N7" s="35"/>
       <c r="O7" s="18"/>
@@ -3312,26 +3306,26 @@
         <v>45280</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="24" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F9" s="24">
         <v>5002</v>
       </c>
       <c r="G9" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="H9" s="97" t="s">
+      <c r="I9" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="I9" s="96" t="s">
+      <c r="J9" s="96" t="s">
         <v>165</v>
-      </c>
-      <c r="J9" s="96" t="s">
-        <v>166</v>
       </c>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
@@ -3339,7 +3333,7 @@
       <c r="N9" s="24"/>
       <c r="O9" s="24"/>
       <c r="P9" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q9" s="24"/>
       <c r="R9" s="24"/>
@@ -3349,17 +3343,17 @@
       <c r="T9" s="24"/>
       <c r="U9" s="24"/>
       <c r="V9" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W9" s="24">
         <v>2022</v>
       </c>
       <c r="X9" s="24"/>
       <c r="Y9" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Z9" s="24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AA9" s="46"/>
       <c r="AB9" s="24"/>
@@ -3369,7 +3363,7 @@
       <c r="AF9" s="24"/>
       <c r="AG9" s="84"/>
       <c r="AH9" s="24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.2">
@@ -3581,7 +3575,7 @@
       <c r="D4" s="68"/>
       <c r="E4" s="67"/>
       <c r="F4" s="130" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G4" s="131"/>
       <c r="H4" s="131"/>
@@ -3590,7 +3584,7 @@
       <c r="K4" s="131"/>
       <c r="L4" s="69"/>
       <c r="M4" s="130" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N4" s="131"/>
       <c r="O4" s="131"/>
@@ -3598,7 +3592,7 @@
       <c r="Q4" s="131"/>
       <c r="R4" s="69"/>
       <c r="S4" s="130" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="T4" s="131"/>
       <c r="U4" s="36"/>
@@ -3609,12 +3603,12 @@
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
       <c r="F5" s="126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G5" s="124"/>
       <c r="H5" s="18"/>
       <c r="I5" s="126" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J5" s="124"/>
       <c r="K5" s="124"/>
@@ -3639,7 +3633,7 @@
       <c r="H6" s="18"/>
       <c r="I6" s="23"/>
       <c r="J6" s="126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K6" s="124"/>
       <c r="L6" s="18"/>
@@ -3709,22 +3703,22 @@
     </row>
     <row r="8" spans="1:21" ht="56" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="57" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="24">
         <v>5002</v>
       </c>
       <c r="D8" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="97" t="s">
         <v>163</v>
       </c>
-      <c r="E8" s="97" t="s">
+      <c r="F8" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="96" t="s">
-        <v>165</v>
-      </c>
       <c r="G8" s="96" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H8" s="24"/>
       <c r="I8" s="24"/>
@@ -3732,13 +3726,13 @@
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="N8" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="N8" s="24" t="s">
-        <v>130</v>
-      </c>
       <c r="O8" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P8" s="24">
         <v>1916</v>
@@ -3746,7 +3740,7 @@
       <c r="Q8" s="96"/>
       <c r="R8" s="24"/>
       <c r="S8" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="T8" s="24">
         <v>2022</v>
@@ -4179,7 +4173,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4208,7 +4202,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="119"/>
       <c r="D9" s="126" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E9" s="124"/>
       <c r="F9" s="124"/>
@@ -4250,19 +4244,19 @@
         <v>44984</v>
       </c>
       <c r="D11" s="82" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" s="98" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F11" s="103">
         <v>107551000061</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H11" s="82" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I11" s="99"/>
       <c r="J11" s="99"/>
@@ -4297,8 +4291,37 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e7d0671dbe340d15fdce5ab7e9f4c491">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2feafd61044eb4abe44eb47c2e62f3e5" ns2:_="" ns3:_="" ns4:_="">
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="9d8c265a-5436-43a7-80c1-713d2827ffde" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Doc_x002e_SymbolNumber xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+    <Ready xmlns="819ae873-75e1-413b-9d00-7af9258cf281">true</Ready>
+    <_Flow_SignoffStatus xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+    <Comments xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="819ae873-75e1-413b-9d00-7af9258cf281">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="eb4559c4-8463-4985-927f-f0d558bff8f0" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008FB6730B0802B54A9F00C78B857E1443" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e758502e7902c92bdb050e89a8fea950">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="819ae873-75e1-413b-9d00-7af9258cf281" xmlns:ns3="eb4559c4-8463-4985-927f-f0d558bff8f0" xmlns:ns4="13d80b15-5f07-43ab-b435-85767a7dac08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4060acd4b29e25a8a76462245842ebf" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="819ae873-75e1-413b-9d00-7af9258cf281"/>
     <xsd:import namespace="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
     <xsd:import namespace="13d80b15-5f07-43ab-b435-85767a7dac08"/>
@@ -4578,37 +4601,42 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Doc_x002e_SymbolNumber xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-    <Ready xmlns="819ae873-75e1-413b-9d00-7af9258cf281">true</Ready>
-    <_Flow_SignoffStatus xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-    <Comments xmlns="819ae873-75e1-413b-9d00-7af9258cf281" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="819ae873-75e1-413b-9d00-7af9258cf281">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="eb4559c4-8463-4985-927f-f0d558bff8f0" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F606CF0-1718-46D3-B179-44BAE93B21DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DF1E5F-2127-4776-9853-769834FF9CD7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="9d8c265a-5436-43a7-80c1-713d2827ffde" ContentTypeId="0x0101" PreviousValue="false"/>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31406CB0-E590-4E9D-BB34-D64DBC75D6B7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="13d80b15-5f07-43ab-b435-85767a7dac08"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
+    <ds:schemaRef ds:uri="819ae873-75e1-413b-9d00-7af9258cf281"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5644C1C6-E75A-48D7-AF6B-EEE036A8E97E}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F702438E-A166-4DCC-9367-B6F9D84A221F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -4625,38 +4653,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31406CB0-E590-4E9D-BB34-D64DBC75D6B7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="819ae873-75e1-413b-9d00-7af9258cf281"/>
-    <ds:schemaRef ds:uri="13d80b15-5f07-43ab-b435-85767a7dac08"/>
-    <ds:schemaRef ds:uri="eb4559c4-8463-4985-927f-f0d558bff8f0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2DF1E5F-2127-4776-9853-769834FF9CD7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F606CF0-1718-46D3-B179-44BAE93B21DD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>